--- a/qr_links.xlsx
+++ b/qr_links.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2208,101 +2208,101 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Rohan Mudras</v>
+        <v>Riya Arora</v>
       </c>
       <c r="B165" t="str">
-        <v>9819216439</v>
+        <v>9854615863</v>
       </c>
       <c r="C165">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rohan_Mudras_b868f34e.png","https://qrcode-2-production.up.railway.app/qr/Rohan_Mudras_b868f34e.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Riya_Arora_1873ebb2.png","https://qrcode-2-production.up.railway.app/qr/Riya_Arora_1873ebb2.png")</f>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Rohan Sharma</v>
+        <v>Rohan Mudras</v>
       </c>
       <c r="B166" t="str">
-        <v>9945794472</v>
+        <v>9819216439</v>
       </c>
       <c r="C166">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rohan_Sharma_f773ae99.png","https://qrcode-2-production.up.railway.app/qr/Rohan_Sharma_f773ae99.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rohan_Mudras_b868f34e.png","https://qrcode-2-production.up.railway.app/qr/Rohan_Mudras_b868f34e.png")</f>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Ronak Gupta</v>
+        <v>Rohan Sharma</v>
       </c>
       <c r="B167" t="str">
-        <v>8999372024</v>
+        <v>9945794472</v>
       </c>
       <c r="C167">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Ronak_Gupta_283ec2ce.png","https://qrcode-2-production.up.railway.app/qr/Ronak_Gupta_283ec2ce.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rohan_Sharma_f773ae99.png","https://qrcode-2-production.up.railway.app/qr/Rohan_Sharma_f773ae99.png")</f>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Rudra Saheta</v>
+        <v>Ronak Gupta</v>
       </c>
       <c r="B168" t="str">
-        <v>9820721410</v>
+        <v>8999372024</v>
       </c>
       <c r="C168">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rudra_Saheta_e1f7b3f0.png","https://qrcode-2-production.up.railway.app/qr/Rudra_Saheta_e1f7b3f0.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Ronak_Gupta_283ec2ce.png","https://qrcode-2-production.up.railway.app/qr/Ronak_Gupta_283ec2ce.png")</f>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Rupali Nimje</v>
+        <v>Rudra Saheta</v>
       </c>
       <c r="B169" t="str">
-        <v>8693834003</v>
+        <v>9820721410</v>
       </c>
       <c r="C169">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rupali_Nimje_8ec6647f.png","https://qrcode-2-production.up.railway.app/qr/Rupali_Nimje_8ec6647f.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rudra_Saheta_e1f7b3f0.png","https://qrcode-2-production.up.railway.app/qr/Rudra_Saheta_e1f7b3f0.png")</f>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Rushabh Modh</v>
+        <v>Rupali Nimje</v>
       </c>
       <c r="B170" t="str">
-        <v>9819052196</v>
+        <v>8693834003</v>
       </c>
       <c r="C170">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rushabh_Modh_52d29474.png","https://qrcode-2-production.up.railway.app/qr/Rushabh_Modh_52d29474.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rupali_Nimje_8ec6647f.png","https://qrcode-2-production.up.railway.app/qr/Rupali_Nimje_8ec6647f.png")</f>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Ryan</v>
+        <v>Rushabh Modh</v>
       </c>
       <c r="B171" t="str">
-        <v>8484031607</v>
+        <v>9819052196</v>
       </c>
       <c r="C171">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Ryan_11473a35.png","https://qrcode-2-production.up.railway.app/qr/Ryan_11473a35.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Rushabh_Modh_52d29474.png","https://qrcode-2-production.up.railway.app/qr/Rushabh_Modh_52d29474.png")</f>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Sahay Singh</v>
+        <v>Ryan</v>
       </c>
       <c r="B172" t="str">
-        <v>7559360478</v>
+        <v>8484031607</v>
       </c>
       <c r="C172">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sahay_Singh_5024e17f.png","https://qrcode-2-production.up.railway.app/qr/Sahay_Singh_5024e17f.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Ryan_11473a35.png","https://qrcode-2-production.up.railway.app/qr/Ryan_11473a35.png")</f>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Sahil</v>
+        <v>Sahay Singh</v>
       </c>
       <c r="B173" t="str">
-        <v>9769217536</v>
+        <v>7559360478</v>
       </c>
       <c r="C173">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sahil_9caabe77.png","https://qrcode-2-production.up.railway.app/qr/Sahil_9caabe77.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sahay_Singh_5024e17f.png","https://qrcode-2-production.up.railway.app/qr/Sahay_Singh_5024e17f.png")</f>
       </c>
     </row>
     <row r="174">
@@ -2310,7 +2310,7 @@
         <v>Sahil</v>
       </c>
       <c r="B174" t="str">
-        <v>9820258657</v>
+        <v>9769217536</v>
       </c>
       <c r="C174">
         <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sahil_9caabe77.png","https://qrcode-2-production.up.railway.app/qr/Sahil_9caabe77.png")</f>
@@ -2318,799 +2318,810 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Sailesh Gandhi</v>
+        <v>Sahil</v>
       </c>
       <c r="B175" t="str">
-        <v>9757168723</v>
+        <v>9820258657</v>
       </c>
       <c r="C175">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sailesh_Gandhi_5c39a2ec.png","https://qrcode-2-production.up.railway.app/qr/Sailesh_Gandhi_5c39a2ec.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sahil_9caabe77.png","https://qrcode-2-production.up.railway.app/qr/Sahil_9caabe77.png")</f>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>SAIRAJ</v>
+        <v>Sailesh Gandhi</v>
       </c>
       <c r="B176" t="str">
-        <v>8369325934</v>
+        <v>9757168723</v>
       </c>
       <c r="C176">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/SAIRAJ_8f7ccda1.png","https://qrcode-2-production.up.railway.app/qr/SAIRAJ_8f7ccda1.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sailesh_Gandhi_5c39a2ec.png","https://qrcode-2-production.up.railway.app/qr/Sailesh_Gandhi_5c39a2ec.png")</f>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Samarth Shah</v>
+        <v>SAIRAJ</v>
       </c>
       <c r="B177" t="str">
-        <v>9372365043</v>
+        <v>8369325934</v>
       </c>
       <c r="C177">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Samarth_Shah_24393bf7.png","https://qrcode-2-production.up.railway.app/qr/Samarth_Shah_24393bf7.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/SAIRAJ_8f7ccda1.png","https://qrcode-2-production.up.railway.app/qr/SAIRAJ_8f7ccda1.png")</f>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Samay</v>
+        <v>Samarth Shah</v>
       </c>
       <c r="B178" t="str">
-        <v>9819032325</v>
+        <v>9372365043</v>
       </c>
       <c r="C178">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Samay_e51d7301.png","https://qrcode-2-production.up.railway.app/qr/Samay_e51d7301.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Samarth_Shah_24393bf7.png","https://qrcode-2-production.up.railway.app/qr/Samarth_Shah_24393bf7.png")</f>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Sameer</v>
+        <v>Samay</v>
       </c>
       <c r="B179" t="str">
-        <v>9886130891</v>
+        <v>9819032325</v>
       </c>
       <c r="C179">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sameer_6c7f693a.png","https://qrcode-2-production.up.railway.app/qr/Sameer_6c7f693a.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Samay_e51d7301.png","https://qrcode-2-production.up.railway.app/qr/Samay_e51d7301.png")</f>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Sameer Kazi</v>
+        <v>Sameer</v>
       </c>
       <c r="B180" t="str">
-        <v>9821576884</v>
+        <v>9886130891</v>
       </c>
       <c r="C180">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sameer_Kazi_62ec59ed.png","https://qrcode-2-production.up.railway.app/qr/Sameer_Kazi_62ec59ed.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sameer_6c7f693a.png","https://qrcode-2-production.up.railway.app/qr/Sameer_6c7f693a.png")</f>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Santosh</v>
+        <v>Sameer Kazi</v>
       </c>
       <c r="B181" t="str">
-        <v>9962551828</v>
+        <v>9821576884</v>
       </c>
       <c r="C181">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Santosh_16365631.png","https://qrcode-2-production.up.railway.app/qr/Santosh_16365631.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sameer_Kazi_62ec59ed.png","https://qrcode-2-production.up.railway.app/qr/Sameer_Kazi_62ec59ed.png")</f>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Sanya Manglani</v>
+        <v>Santosh</v>
       </c>
       <c r="B182" t="str">
-        <v>9930110800</v>
+        <v>9962551828</v>
       </c>
       <c r="C182">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sanya_Manglani_27670a2a.png","https://qrcode-2-production.up.railway.app/qr/Sanya_Manglani_27670a2a.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Santosh_16365631.png","https://qrcode-2-production.up.railway.app/qr/Santosh_16365631.png")</f>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>SAQUIB AZIM HASWARE</v>
+        <v>Sanya Manglani</v>
       </c>
       <c r="B183" t="str">
-        <v>8600555699</v>
+        <v>9930110800</v>
       </c>
       <c r="C183">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/SAQUIB_AZIM_HASWARE_882c2ae5.png","https://qrcode-2-production.up.railway.app/qr/SAQUIB_AZIM_HASWARE_882c2ae5.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sanya_Manglani_27670a2a.png","https://qrcode-2-production.up.railway.app/qr/Sanya_Manglani_27670a2a.png")</f>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Sarthak Bhuigal</v>
+        <v>SAQUIB AZIM HASWARE</v>
       </c>
       <c r="B184" t="str">
-        <v>9595555222</v>
+        <v>8600555699</v>
       </c>
       <c r="C184">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sarthak_Bhuigal_2b62bdb2.png","https://qrcode-2-production.up.railway.app/qr/Sarthak_Bhuigal_2b62bdb2.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/SAQUIB_AZIM_HASWARE_882c2ae5.png","https://qrcode-2-production.up.railway.app/qr/SAQUIB_AZIM_HASWARE_882c2ae5.png")</f>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Saurabh Patil</v>
+        <v>Sarthak Bhuigal</v>
       </c>
       <c r="B185" t="str">
-        <v>9769459690</v>
+        <v>9595555222</v>
       </c>
       <c r="C185">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Saurabh_Patil_d37854c5.png","https://qrcode-2-production.up.railway.app/qr/Saurabh_Patil_d37854c5.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sarthak_Bhuigal_2b62bdb2.png","https://qrcode-2-production.up.railway.app/qr/Sarthak_Bhuigal_2b62bdb2.png")</f>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Saurabh Wahul</v>
+        <v>Saurabh Patil</v>
       </c>
       <c r="B186" t="str">
-        <v>9657960484</v>
+        <v>9769459690</v>
       </c>
       <c r="C186">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Saurabh_Wahul_8a2eac97.png","https://qrcode-2-production.up.railway.app/qr/Saurabh_Wahul_8a2eac97.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Saurabh_Patil_d37854c5.png","https://qrcode-2-production.up.railway.app/qr/Saurabh_Patil_d37854c5.png")</f>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Scott Moraes</v>
+        <v>Saurabh Wahul</v>
       </c>
       <c r="B187" t="str">
-        <v>8879071063</v>
+        <v>9657960484</v>
       </c>
       <c r="C187">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Scott_Moraes_41336d11.png","https://qrcode-2-production.up.railway.app/qr/Scott_Moraes_41336d11.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Saurabh_Wahul_8a2eac97.png","https://qrcode-2-production.up.railway.app/qr/Saurabh_Wahul_8a2eac97.png")</f>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Seaon</v>
+        <v>Scott Moraes</v>
       </c>
       <c r="B188" t="str">
-        <v>7558573207</v>
+        <v>8879071063</v>
       </c>
       <c r="C188">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Seaon_795dba89.png","https://qrcode-2-production.up.railway.app/qr/Seaon_795dba89.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Scott_Moraes_41336d11.png","https://qrcode-2-production.up.railway.app/qr/Scott_Moraes_41336d11.png")</f>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Setu Vatsal</v>
+        <v>Seaon</v>
       </c>
       <c r="B189" t="str">
-        <v>7977145358</v>
+        <v>7558573207</v>
       </c>
       <c r="C189">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Setu_Vatsal_af1607b2.png","https://qrcode-2-production.up.railway.app/qr/Setu_Vatsal_af1607b2.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Seaon_795dba89.png","https://qrcode-2-production.up.railway.app/qr/Seaon_795dba89.png")</f>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Shabaz rogangar</v>
+        <v>Setu Vatsal</v>
       </c>
       <c r="B190" t="str">
-        <v>8097852203</v>
+        <v>7977145358</v>
       </c>
       <c r="C190">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shabaz_rogangar_4f39c943.png","https://qrcode-2-production.up.railway.app/qr/Shabaz_rogangar_4f39c943.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Setu_Vatsal_af1607b2.png","https://qrcode-2-production.up.railway.app/qr/Setu_Vatsal_af1607b2.png")</f>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Shagnik Mukherjee</v>
+        <v>Shabaz rogangar</v>
       </c>
       <c r="B191" t="str">
-        <v>9820837271</v>
+        <v>8097852203</v>
       </c>
       <c r="C191">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shagnik_Mukherjee_624ef9a3.png","https://qrcode-2-production.up.railway.app/qr/Shagnik_Mukherjee_624ef9a3.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shabaz_rogangar_4f39c943.png","https://qrcode-2-production.up.railway.app/qr/Shabaz_rogangar_4f39c943.png")</f>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Shaikh Rihan</v>
+        <v>Shagnik Mukherjee</v>
       </c>
       <c r="B192" t="str">
-        <v>7710994260</v>
+        <v>9820837271</v>
       </c>
       <c r="C192">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shaikh_Rihan_90249765.png","https://qrcode-2-production.up.railway.app/qr/Shaikh_Rihan_90249765.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shagnik_Mukherjee_624ef9a3.png","https://qrcode-2-production.up.railway.app/qr/Shagnik_Mukherjee_624ef9a3.png")</f>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Shanmukh Sripada</v>
+        <v>Shaikh Rihan</v>
       </c>
       <c r="B193" t="str">
-        <v>9166982333</v>
+        <v>7710994260</v>
       </c>
       <c r="C193">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shanmukh_Sripada_b120f9ba.png","https://qrcode-2-production.up.railway.app/qr/Shanmukh_Sripada_b120f9ba.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shaikh_Rihan_90249765.png","https://qrcode-2-production.up.railway.app/qr/Shaikh_Rihan_90249765.png")</f>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Shantanu Ambekar</v>
+        <v>Shanmukh Sripada</v>
       </c>
       <c r="B194" t="str">
-        <v>7387425832</v>
+        <v>9166982333</v>
       </c>
       <c r="C194">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shantanu_Ambekar_3c599df1.png","https://qrcode-2-production.up.railway.app/qr/Shantanu_Ambekar_3c599df1.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shanmukh_Sripada_b120f9ba.png","https://qrcode-2-production.up.railway.app/qr/Shanmukh_Sripada_b120f9ba.png")</f>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Shardul Apte</v>
+        <v>Shantanu Ambekar</v>
       </c>
       <c r="B195" t="str">
-        <v>7776858986</v>
+        <v>7387425832</v>
       </c>
       <c r="C195">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shardul_Apte_fbba3f50.png","https://qrcode-2-production.up.railway.app/qr/Shardul_Apte_fbba3f50.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shantanu_Ambekar_3c599df1.png","https://qrcode-2-production.up.railway.app/qr/Shantanu_Ambekar_3c599df1.png")</f>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Sharvari</v>
+        <v>Shardul Apte</v>
       </c>
       <c r="B196" t="str">
-        <v>9967792829</v>
+        <v>7776858986</v>
       </c>
       <c r="C196">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sharvari_d7224e66.png","https://qrcode-2-production.up.railway.app/qr/Sharvari_d7224e66.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shardul_Apte_fbba3f50.png","https://qrcode-2-production.up.railway.app/qr/Shardul_Apte_fbba3f50.png")</f>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Shivi</v>
+        <v>Sharvari</v>
       </c>
       <c r="B197" t="str">
-        <v>9899471626</v>
+        <v>9967792829</v>
       </c>
       <c r="C197">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shivi_db8752aa.png","https://qrcode-2-production.up.railway.app/qr/Shivi_db8752aa.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sharvari_d7224e66.png","https://qrcode-2-production.up.railway.app/qr/Sharvari_d7224e66.png")</f>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Shreya</v>
+        <v>Shivi</v>
       </c>
       <c r="B198" t="str">
-        <v>9689444578</v>
+        <v>9899471626</v>
       </c>
       <c r="C198">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shreya_3306ba23.png","https://qrcode-2-production.up.railway.app/qr/Shreya_3306ba23.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shivi_db8752aa.png","https://qrcode-2-production.up.railway.app/qr/Shivi_db8752aa.png")</f>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Shri</v>
+        <v>Shreya</v>
       </c>
       <c r="B199" t="str">
-        <v>9600129709</v>
+        <v>9689444578</v>
       </c>
       <c r="C199">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shri_e191367d.png","https://qrcode-2-production.up.railway.app/qr/Shri_e191367d.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shreya_3306ba23.png","https://qrcode-2-production.up.railway.app/qr/Shreya_3306ba23.png")</f>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Shubham Kadam</v>
+        <v>Shri</v>
       </c>
       <c r="B200" t="str">
-        <v>8446910423</v>
+        <v>9600129709</v>
       </c>
       <c r="C200">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shubham_Kadam_3de89363.png","https://qrcode-2-production.up.railway.app/qr/Shubham_Kadam_3de89363.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shri_e191367d.png","https://qrcode-2-production.up.railway.app/qr/Shri_e191367d.png")</f>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Sid Pimple</v>
+        <v>Shubham Kadam</v>
       </c>
       <c r="B201" t="str">
-        <v>9004503132</v>
+        <v>8446910423</v>
       </c>
       <c r="C201">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sid_Pimple_88349c6e.png","https://qrcode-2-production.up.railway.app/qr/Sid_Pimple_88349c6e.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Shubham_Kadam_3de89363.png","https://qrcode-2-production.up.railway.app/qr/Shubham_Kadam_3de89363.png")</f>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Siddharth</v>
+        <v>Sid Pimple</v>
       </c>
       <c r="B202" t="str">
-        <v>9930951031</v>
+        <v>9004503132</v>
       </c>
       <c r="C202">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Siddharth_aacfba25.png","https://qrcode-2-production.up.railway.app/qr/Siddharth_aacfba25.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sid_Pimple_88349c6e.png","https://qrcode-2-production.up.railway.app/qr/Sid_Pimple_88349c6e.png")</f>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Siddharth H</v>
+        <v>Siddharth</v>
       </c>
       <c r="B203" t="str">
-        <v>8838078495</v>
+        <v>9930951031</v>
       </c>
       <c r="C203">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Siddharth_H_59f18dd2.png","https://qrcode-2-production.up.railway.app/qr/Siddharth_H_59f18dd2.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Siddharth_aacfba25.png","https://qrcode-2-production.up.railway.app/qr/Siddharth_aacfba25.png")</f>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Siddhi Mathur</v>
+        <v>Siddharth H</v>
       </c>
       <c r="B204" t="str">
-        <v>9890497660</v>
+        <v>8838078495</v>
       </c>
       <c r="C204">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Siddhi_Mathur_2ac27634.png","https://qrcode-2-production.up.railway.app/qr/Siddhi_Mathur_2ac27634.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Siddharth_H_59f18dd2.png","https://qrcode-2-production.up.railway.app/qr/Siddharth_H_59f18dd2.png")</f>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Smit Shah</v>
+        <v>Siddhi Mathur</v>
       </c>
       <c r="B205" t="str">
-        <v>9987735818</v>
+        <v>9890497660</v>
       </c>
       <c r="C205">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Smit_Shah_a31beb3f.png","https://qrcode-2-production.up.railway.app/qr/Smit_Shah_a31beb3f.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Siddhi_Mathur_2ac27634.png","https://qrcode-2-production.up.railway.app/qr/Siddhi_Mathur_2ac27634.png")</f>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Soumya Sharma</v>
+        <v>Smit Shah</v>
       </c>
       <c r="B206" t="str">
-        <v>8928606139</v>
+        <v>9987735818</v>
       </c>
       <c r="C206">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Soumya_Sharma_6a8ee197.png","https://qrcode-2-production.up.railway.app/qr/Soumya_Sharma_6a8ee197.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Smit_Shah_a31beb3f.png","https://qrcode-2-production.up.railway.app/qr/Smit_Shah_a31beb3f.png")</f>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Suhas Kini</v>
+        <v>Soumya Sharma</v>
       </c>
       <c r="B207" t="str">
-        <v>9606853332</v>
+        <v>8928606139</v>
       </c>
       <c r="C207">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Suhas_Kini_dec2ae91.png","https://qrcode-2-production.up.railway.app/qr/Suhas_Kini_dec2ae91.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Soumya_Sharma_6a8ee197.png","https://qrcode-2-production.up.railway.app/qr/Soumya_Sharma_6a8ee197.png")</f>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Sunny Gandhi</v>
+        <v>Suhas Kini</v>
       </c>
       <c r="B208" t="str">
-        <v>9820177357</v>
+        <v>9606853332</v>
       </c>
       <c r="C208">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sunny_Gandhi_98e18049.png","https://qrcode-2-production.up.railway.app/qr/Sunny_Gandhi_98e18049.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Suhas_Kini_dec2ae91.png","https://qrcode-2-production.up.railway.app/qr/Suhas_Kini_dec2ae91.png")</f>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Suraj</v>
+        <v>Sunny Gandhi</v>
       </c>
       <c r="B209" t="str">
-        <v>7977201625</v>
+        <v>9820177357</v>
       </c>
       <c r="C209">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Suraj_cd33d262.png","https://qrcode-2-production.up.railway.app/qr/Suraj_cd33d262.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sunny_Gandhi_98e18049.png","https://qrcode-2-production.up.railway.app/qr/Sunny_Gandhi_98e18049.png")</f>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Sven Monteiro JR</v>
+        <v>Suraj</v>
       </c>
       <c r="B210" t="str">
-        <v>7219896663</v>
+        <v>7977201625</v>
       </c>
       <c r="C210">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sven_Monteiro_JR_694f9ad5.png","https://qrcode-2-production.up.railway.app/qr/Sven_Monteiro_JR_694f9ad5.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Suraj_cd33d262.png","https://qrcode-2-production.up.railway.app/qr/Suraj_cd33d262.png")</f>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Swarnim</v>
+        <v>Sven Monteiro JR</v>
       </c>
       <c r="B211" t="str">
-        <v>9999048026</v>
+        <v>7219896663</v>
       </c>
       <c r="C211">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Swarnim_c4aba021.png","https://qrcode-2-production.up.railway.app/qr/Swarnim_c4aba021.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Sven_Monteiro_JR_694f9ad5.png","https://qrcode-2-production.up.railway.app/qr/Sven_Monteiro_JR_694f9ad5.png")</f>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Takkshay Goel</v>
+        <v>Swarnim</v>
       </c>
       <c r="B212" t="str">
-        <v>9810252312</v>
+        <v>9999048026</v>
       </c>
       <c r="C212">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Takkshay_Goel_dec061b3.png","https://qrcode-2-production.up.railway.app/qr/Takkshay_Goel_dec061b3.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Swarnim_c4aba021.png","https://qrcode-2-production.up.railway.app/qr/Swarnim_c4aba021.png")</f>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Tanay soni</v>
+        <v>Takkshay Goel</v>
       </c>
       <c r="B213" t="str">
-        <v>6026868805</v>
+        <v>9810252312</v>
       </c>
       <c r="C213">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanay_soni_4aae44f7.png","https://qrcode-2-production.up.railway.app/qr/Tanay_soni_4aae44f7.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Takkshay_Goel_dec061b3.png","https://qrcode-2-production.up.railway.app/qr/Takkshay_Goel_dec061b3.png")</f>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Tanmay Atre</v>
+        <v>Tanay soni</v>
       </c>
       <c r="B214" t="str">
-        <v>8200220324</v>
+        <v>6026868805</v>
       </c>
       <c r="C214">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanmay_Atre_ba97c234.png","https://qrcode-2-production.up.railway.app/qr/Tanmay_Atre_ba97c234.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanay_soni_4aae44f7.png","https://qrcode-2-production.up.railway.app/qr/Tanay_soni_4aae44f7.png")</f>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Tanuj</v>
+        <v>Tanmay Atre</v>
       </c>
       <c r="B215" t="str">
-        <v>9930279350</v>
+        <v>8200220324</v>
       </c>
       <c r="C215">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanuj_990f5331.png","https://qrcode-2-production.up.railway.app/qr/Tanuj_990f5331.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanmay_Atre_ba97c234.png","https://qrcode-2-production.up.railway.app/qr/Tanmay_Atre_ba97c234.png")</f>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Tanuj V</v>
+        <v>Tanuj</v>
       </c>
       <c r="B216" t="str">
-        <v>8169088234</v>
+        <v>9930279350</v>
       </c>
       <c r="C216">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanuj_V_a15ddee6.png","https://qrcode-2-production.up.railway.app/qr/Tanuj_V_a15ddee6.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanuj_990f5331.png","https://qrcode-2-production.up.railway.app/qr/Tanuj_990f5331.png")</f>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Thasnad</v>
+        <v>Tanuj V</v>
       </c>
       <c r="B217" t="str">
-        <v>9072205214</v>
+        <v>8169088234</v>
       </c>
       <c r="C217">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Thasnad_236b61c0.png","https://qrcode-2-production.up.railway.app/qr/Thasnad_236b61c0.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tanuj_V_a15ddee6.png","https://qrcode-2-production.up.railway.app/qr/Tanuj_V_a15ddee6.png")</f>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Theertha Sreejith</v>
+        <v>Thasnad</v>
       </c>
       <c r="B218" t="str">
-        <v>8281069149</v>
+        <v>9072205214</v>
       </c>
       <c r="C218">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Theertha_Sreejith_0846034f.png","https://qrcode-2-production.up.railway.app/qr/Theertha_Sreejith_0846034f.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Thasnad_236b61c0.png","https://qrcode-2-production.up.railway.app/qr/Thasnad_236b61c0.png")</f>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Tushar Chodanker</v>
+        <v>Theertha Sreejith</v>
       </c>
       <c r="B219" t="str">
-        <v>9040991010</v>
+        <v>8281069149</v>
       </c>
       <c r="C219">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tushar_Chodanker_73584c60.png","https://qrcode-2-production.up.railway.app/qr/Tushar_Chodanker_73584c60.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Theertha_Sreejith_0846034f.png","https://qrcode-2-production.up.railway.app/qr/Theertha_Sreejith_0846034f.png")</f>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Unmesh Manohar</v>
+        <v>Tushar Chodanker</v>
       </c>
       <c r="B220" t="str">
-        <v>9969261694</v>
+        <v>9040991010</v>
       </c>
       <c r="C220">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Unmesh_Manohar_9ec27c4b.png","https://qrcode-2-production.up.railway.app/qr/Unmesh_Manohar_9ec27c4b.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Tushar_Chodanker_73584c60.png","https://qrcode-2-production.up.railway.app/qr/Tushar_Chodanker_73584c60.png")</f>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Unnati Thacker</v>
+        <v>Unmesh Manohar</v>
       </c>
       <c r="B221" t="str">
-        <v>9004574044</v>
+        <v>9969261694</v>
       </c>
       <c r="C221">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Unnati_Thacker_88566fbe.png","https://qrcode-2-production.up.railway.app/qr/Unnati_Thacker_88566fbe.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Unmesh_Manohar_9ec27c4b.png","https://qrcode-2-production.up.railway.app/qr/Unmesh_Manohar_9ec27c4b.png")</f>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Utkarsh Patel</v>
+        <v>Unnati Thacker</v>
       </c>
       <c r="B222" t="str">
-        <v>9867430108</v>
+        <v>9004574044</v>
       </c>
       <c r="C222">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Utkarsh_Patel_a2178ac3.png","https://qrcode-2-production.up.railway.app/qr/Utkarsh_Patel_a2178ac3.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Unnati_Thacker_88566fbe.png","https://qrcode-2-production.up.railway.app/qr/Unnati_Thacker_88566fbe.png")</f>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>UZAIR SHAIKH</v>
+        <v>Utkarsh Patel</v>
       </c>
       <c r="B223" t="str">
-        <v>8828870458</v>
+        <v>9867430108</v>
       </c>
       <c r="C223">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/UZAIR_SHAIKH_aaacc681.png","https://qrcode-2-production.up.railway.app/qr/UZAIR_SHAIKH_aaacc681.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Utkarsh_Patel_a2178ac3.png","https://qrcode-2-production.up.railway.app/qr/Utkarsh_Patel_a2178ac3.png")</f>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Vadivel Elumalai</v>
+        <v>UZAIR SHAIKH</v>
       </c>
       <c r="B224" t="str">
-        <v>9710660603</v>
+        <v>8828870458</v>
       </c>
       <c r="C224">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vadivel_Elumalai_f4c2d034.png","https://qrcode-2-production.up.railway.app/qr/Vadivel_Elumalai_f4c2d034.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/UZAIR_SHAIKH_aaacc681.png","https://qrcode-2-production.up.railway.app/qr/UZAIR_SHAIKH_aaacc681.png")</f>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>VAIBHAV</v>
+        <v>Vadivel Elumalai</v>
       </c>
       <c r="B225" t="str">
-        <v>7021019161</v>
+        <v>9710660603</v>
       </c>
       <c r="C225">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/VAIBHAV_6c3e982c.png","https://qrcode-2-production.up.railway.app/qr/VAIBHAV_6c3e982c.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vadivel_Elumalai_f4c2d034.png","https://qrcode-2-production.up.railway.app/qr/Vadivel_Elumalai_f4c2d034.png")</f>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Vanlalpeka Saiawi</v>
+        <v>VAIBHAV</v>
       </c>
       <c r="B226" t="str">
-        <v>8652550479</v>
+        <v>7021019161</v>
       </c>
       <c r="C226">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vanlalpeka_Saiawi_43023af9.png","https://qrcode-2-production.up.railway.app/qr/Vanlalpeka_Saiawi_43023af9.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/VAIBHAV_6c3e982c.png","https://qrcode-2-production.up.railway.app/qr/VAIBHAV_6c3e982c.png")</f>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Varad</v>
+        <v>Vanlalpeka Saiawi</v>
       </c>
       <c r="B227" t="str">
-        <v>7620587795</v>
+        <v>8652550479</v>
       </c>
       <c r="C227">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Varad_70015484.png","https://qrcode-2-production.up.railway.app/qr/Varad_70015484.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vanlalpeka_Saiawi_43023af9.png","https://qrcode-2-production.up.railway.app/qr/Vanlalpeka_Saiawi_43023af9.png")</f>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Varun</v>
+        <v>Varad</v>
       </c>
       <c r="B228" t="str">
-        <v>9819826246</v>
+        <v>7620587795</v>
       </c>
       <c r="C228">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Varun_ae721add.png","https://qrcode-2-production.up.railway.app/qr/Varun_ae721add.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Varad_70015484.png","https://qrcode-2-production.up.railway.app/qr/Varad_70015484.png")</f>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Ved parab</v>
+        <v>Varun</v>
       </c>
       <c r="B229" t="str">
-        <v>8669104877</v>
+        <v>9819826246</v>
       </c>
       <c r="C229">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Ved_parab_57548054.png","https://qrcode-2-production.up.railway.app/qr/Ved_parab_57548054.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Varun_ae721add.png","https://qrcode-2-production.up.railway.app/qr/Varun_ae721add.png")</f>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Vedant Vohra</v>
+        <v>Ved parab</v>
       </c>
       <c r="B230" t="str">
-        <v>8484001912</v>
+        <v>8669104877</v>
       </c>
       <c r="C230">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vedant_Vohra_0fc665fd.png","https://qrcode-2-production.up.railway.app/qr/Vedant_Vohra_0fc665fd.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Ved_parab_57548054.png","https://qrcode-2-production.up.railway.app/qr/Ved_parab_57548054.png")</f>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Vibhor Dhamija</v>
+        <v>Vedant Vohra</v>
       </c>
       <c r="B231" t="str">
-        <v>8860432961</v>
+        <v>8484001912</v>
       </c>
       <c r="C231">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vibhor_Dhamija_fe2645ec.png","https://qrcode-2-production.up.railway.app/qr/Vibhor_Dhamija_fe2645ec.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vedant_Vohra_0fc665fd.png","https://qrcode-2-production.up.railway.app/qr/Vedant_Vohra_0fc665fd.png")</f>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Vikram</v>
+        <v>Vibhor Dhamija</v>
       </c>
       <c r="B232" t="str">
-        <v>9769725949</v>
+        <v>8860432961</v>
       </c>
       <c r="C232">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vikram_8492b2ea.png","https://qrcode-2-production.up.railway.app/qr/Vikram_8492b2ea.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vibhor_Dhamija_fe2645ec.png","https://qrcode-2-production.up.railway.app/qr/Vibhor_Dhamija_fe2645ec.png")</f>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Vinay dingwaney</v>
+        <v>Vikram</v>
       </c>
       <c r="B233" t="str">
-        <v>9820512543</v>
+        <v>9769725949</v>
       </c>
       <c r="C233">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vinay_dingwaney_7c9596ec.png","https://qrcode-2-production.up.railway.app/qr/Vinay_dingwaney_7c9596ec.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vikram_8492b2ea.png","https://qrcode-2-production.up.railway.app/qr/Vikram_8492b2ea.png")</f>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Vinay Makhija</v>
+        <v>Vinay dingwaney</v>
       </c>
       <c r="B234" t="str">
-        <v>9820262631</v>
+        <v>9820512543</v>
       </c>
       <c r="C234">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vinay_Makhija_7ba9a204.png","https://qrcode-2-production.up.railway.app/qr/Vinay_Makhija_7ba9a204.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vinay_dingwaney_7c9596ec.png","https://qrcode-2-production.up.railway.app/qr/Vinay_dingwaney_7c9596ec.png")</f>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Vinod Paremal</v>
+        <v>Vinay Makhija</v>
       </c>
       <c r="B235" t="str">
-        <v>8657932932</v>
+        <v>9820262631</v>
       </c>
       <c r="C235">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vinod_Paremal_87b44d1c.png","https://qrcode-2-production.up.railway.app/qr/Vinod_Paremal_87b44d1c.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vinay_Makhija_7ba9a204.png","https://qrcode-2-production.up.railway.app/qr/Vinay_Makhija_7ba9a204.png")</f>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Vishal Balsara</v>
+        <v>Vinod Paremal</v>
       </c>
       <c r="B236" t="str">
-        <v>9920308590</v>
+        <v>8657932932</v>
       </c>
       <c r="C236">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vishal_Balsara_17a446d2.png","https://qrcode-2-production.up.railway.app/qr/Vishal_Balsara_17a446d2.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vinod_Paremal_87b44d1c.png","https://qrcode-2-production.up.railway.app/qr/Vinod_Paremal_87b44d1c.png")</f>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Vivaan</v>
+        <v>Vishal Balsara</v>
       </c>
       <c r="B237" t="str">
-        <v>9167308720</v>
+        <v>9920308590</v>
       </c>
       <c r="C237">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vivaan_875436f1.png","https://qrcode-2-production.up.railway.app/qr/Vivaan_875436f1.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vishal_Balsara_17a446d2.png","https://qrcode-2-production.up.railway.app/qr/Vishal_Balsara_17a446d2.png")</f>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Viyan lal</v>
+        <v>Vivaan</v>
       </c>
       <c r="B238" t="str">
-        <v>9833837169</v>
+        <v>9167308720</v>
       </c>
       <c r="C238">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Viyan_lal_ce1c643d.png","https://qrcode-2-production.up.railway.app/qr/Viyan_lal_ce1c643d.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Vivaan_875436f1.png","https://qrcode-2-production.up.railway.app/qr/Vivaan_875436f1.png")</f>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Wayne Almeida</v>
+        <v>Viyan lal</v>
       </c>
       <c r="B239" t="str">
-        <v>9619470025</v>
+        <v>9833837169</v>
       </c>
       <c r="C239">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Wayne_Almeida_6ef541b7.png","https://qrcode-2-production.up.railway.app/qr/Wayne_Almeida_6ef541b7.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Viyan_lal_ce1c643d.png","https://qrcode-2-production.up.railway.app/qr/Viyan_lal_ce1c643d.png")</f>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Xavier Sylvester</v>
+        <v>Wayne Almeida</v>
       </c>
       <c r="B240" t="str">
-        <v>9916202245</v>
+        <v>9619470025</v>
       </c>
       <c r="C240">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Xavier_Sylvester_aa58abbb.png","https://qrcode-2-production.up.railway.app/qr/Xavier_Sylvester_aa58abbb.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Wayne_Almeida_6ef541b7.png","https://qrcode-2-production.up.railway.app/qr/Wayne_Almeida_6ef541b7.png")</f>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Yash</v>
+        <v>Xavier Sylvester</v>
       </c>
       <c r="B241" t="str">
-        <v>9619192575</v>
+        <v>9916202245</v>
       </c>
       <c r="C241">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yash_0c7bb290.png","https://qrcode-2-production.up.railway.app/qr/Yash_0c7bb290.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Xavier_Sylvester_aa58abbb.png","https://qrcode-2-production.up.railway.app/qr/Xavier_Sylvester_aa58abbb.png")</f>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Yash Jha</v>
+        <v>Yash</v>
       </c>
       <c r="B242" t="str">
-        <v>9096651692</v>
+        <v>9619192575</v>
       </c>
       <c r="C242">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yash_Jha_eaec531e.png","https://qrcode-2-production.up.railway.app/qr/Yash_Jha_eaec531e.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yash_0c7bb290.png","https://qrcode-2-production.up.railway.app/qr/Yash_0c7bb290.png")</f>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Yash Mota</v>
+        <v>Yash Jha</v>
       </c>
       <c r="B243" t="str">
-        <v>9890115400</v>
+        <v>9096651692</v>
       </c>
       <c r="C243">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yash_Mota_2e84f4ad.png","https://qrcode-2-production.up.railway.app/qr/Yash_Mota_2e84f4ad.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yash_Jha_eaec531e.png","https://qrcode-2-production.up.railway.app/qr/Yash_Jha_eaec531e.png")</f>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Yashashvi Singh</v>
+        <v>Yash Mota</v>
       </c>
       <c r="B244" t="str">
-        <v>8879092962</v>
+        <v>9890115400</v>
       </c>
       <c r="C244">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yashashvi_Singh_f1f9d27d.png","https://qrcode-2-production.up.railway.app/qr/Yashashvi_Singh_f1f9d27d.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yash_Mota_2e84f4ad.png","https://qrcode-2-production.up.railway.app/qr/Yash_Mota_2e84f4ad.png")</f>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Yusuf</v>
+        <v>Yashashvi Singh</v>
       </c>
       <c r="B245" t="str">
-        <v>8693060355</v>
+        <v>8879092962</v>
       </c>
       <c r="C245">
-        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yusuf_8bf19354.png","https://qrcode-2-production.up.railway.app/qr/Yusuf_8bf19354.png")</f>
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yashashvi_Singh_f1f9d27d.png","https://qrcode-2-production.up.railway.app/qr/Yashashvi_Singh_f1f9d27d.png")</f>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
+        <v>Yusuf</v>
+      </c>
+      <c r="B246" t="str">
+        <v>8693060355</v>
+      </c>
+      <c r="C246">
+        <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Yusuf_8bf19354.png","https://qrcode-2-production.up.railway.app/qr/Yusuf_8bf19354.png")</f>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
         <v>Zeeshan Quader</v>
       </c>
-      <c r="B246" t="str">
+      <c r="B247" t="str">
         <v>9836295855</v>
       </c>
-      <c r="C246">
+      <c r="C247">
         <f>HYPERLINK("https://qrcode-2-production.up.railway.app/qr/Zeeshan_Quader_5d85a799.png","https://qrcode-2-production.up.railway.app/qr/Zeeshan_Quader_5d85a799.png")</f>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C246"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C247"/>
   </ignoredErrors>
 </worksheet>
 </file>